--- a/target/test-classes/helpers/IHR_Data.xlsx
+++ b/target/test-classes/helpers/IHR_Data.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F662E8-75EF-4777-AF0B-E67FBC9CFCB0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4F5B3-C549-4DEE-AE7A-A4530A723C0E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Assignee" sheetId="1" r:id="rId1"/>
-    <sheet name="Assignment" sheetId="2" r:id="rId2"/>
+    <sheet name="Assignee" sheetId="2" r:id="rId1"/>
+    <sheet name="AAPolicy" sheetId="1" r:id="rId2"/>
     <sheet name="Policy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Australia</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Birth_Date</t>
   </si>
   <si>
-    <t>Mateo</t>
-  </si>
-  <si>
     <t>Ferreira</t>
   </si>
   <si>
@@ -123,22 +120,19 @@
     <t>Home_Country</t>
   </si>
   <si>
-    <t>12/31/1983</t>
-  </si>
-  <si>
-    <t>1/1/2017</t>
-  </si>
-  <si>
-    <t>1/1/2018</t>
-  </si>
-  <si>
-    <t>17032018J</t>
-  </si>
-  <si>
-    <t>722891K</t>
-  </si>
-  <si>
-    <t>924731L</t>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>72289739</t>
+  </si>
+  <si>
+    <t>110218</t>
+  </si>
+  <si>
+    <t>1918910605</t>
+  </si>
+  <si>
+    <t>Federico</t>
   </si>
 </sst>
 </file>
@@ -197,13 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -484,11 +477,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7271BCF2-BE7D-432D-8482-D32AB698340F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2">
+        <v>38919</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +562,7 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -536,49 +601,49 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -586,152 +651,65 @@
         <v>43101</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>33</v>
+      <c r="D2" s="5">
+        <v>3684367</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2">
+        <v>37888</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5">
+        <v>447675</v>
+      </c>
+      <c r="L2" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N2" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7271BCF2-BE7D-432D-8482-D32AB698340F}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>924731</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="T2" s="2">
         <v>43101</v>
       </c>
-      <c r="E2" s="2">
-        <v>43465</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E3" s="3"/>
+      <c r="U2" s="2">
+        <v>37986</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -755,24 +733,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3">
         <v>43101</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/helpers/IHR_Data.xlsx
+++ b/target/test-classes/helpers/IHR_Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4F5B3-C549-4DEE-AE7A-A4530A723C0E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Assignee" sheetId="2" r:id="rId1"/>
-    <sheet name="AAPolicy" sheetId="1" r:id="rId2"/>
-    <sheet name="Policy" sheetId="3" r:id="rId3"/>
+    <sheet name="AA" sheetId="3" r:id="rId2"/>
+    <sheet name="AAPolicy" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="325">
   <si>
     <t>Australia</t>
   </si>
@@ -102,12 +101,6 @@
     <t>Australia Capital Territory</t>
   </si>
   <si>
-    <t>2010 - 2030</t>
-  </si>
-  <si>
-    <t>12/31/2018</t>
-  </si>
-  <si>
     <t>Policy_Name</t>
   </si>
   <si>
@@ -129,16 +122,886 @@
     <t>110218</t>
   </si>
   <si>
-    <t>1918910605</t>
-  </si>
-  <si>
-    <t>Federico</t>
+    <t>Automated_Name4</t>
+  </si>
+  <si>
+    <t>Automated_Name5</t>
+  </si>
+  <si>
+    <t>Automated_Name6</t>
+  </si>
+  <si>
+    <t>Automated_Name7</t>
+  </si>
+  <si>
+    <t>Automated_Name8</t>
+  </si>
+  <si>
+    <t>Automated_Name9</t>
+  </si>
+  <si>
+    <t>Automated_Name10</t>
+  </si>
+  <si>
+    <t>Automated_Surname4</t>
+  </si>
+  <si>
+    <t>Automated_Surname5</t>
+  </si>
+  <si>
+    <t>Automated_Surname6</t>
+  </si>
+  <si>
+    <t>Automated_Surname7</t>
+  </si>
+  <si>
+    <t>Automated_Surname8</t>
+  </si>
+  <si>
+    <t>Automated_Surname9</t>
+  </si>
+  <si>
+    <t>Automated_Surname10</t>
+  </si>
+  <si>
+    <t>Automated104</t>
+  </si>
+  <si>
+    <t>Automated105</t>
+  </si>
+  <si>
+    <t>Automated106</t>
+  </si>
+  <si>
+    <t>Automated107</t>
+  </si>
+  <si>
+    <t>Automated108</t>
+  </si>
+  <si>
+    <t>Automated109</t>
+  </si>
+  <si>
+    <t>Automated110</t>
+  </si>
+  <si>
+    <t>Automated204</t>
+  </si>
+  <si>
+    <t>Automated205</t>
+  </si>
+  <si>
+    <t>Automated206</t>
+  </si>
+  <si>
+    <t>Automated207</t>
+  </si>
+  <si>
+    <t>Automated208</t>
+  </si>
+  <si>
+    <t>Automated209</t>
+  </si>
+  <si>
+    <t>Automated210</t>
+  </si>
+  <si>
+    <t>10104</t>
+  </si>
+  <si>
+    <t>10105</t>
+  </si>
+  <si>
+    <t>10106</t>
+  </si>
+  <si>
+    <t>10107</t>
+  </si>
+  <si>
+    <t>10108</t>
+  </si>
+  <si>
+    <t>10109</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>Automated_Name12</t>
+  </si>
+  <si>
+    <t>Automated_Name13</t>
+  </si>
+  <si>
+    <t>Automated_Name14</t>
+  </si>
+  <si>
+    <t>Automated_Name15</t>
+  </si>
+  <si>
+    <t>Automated_Name16</t>
+  </si>
+  <si>
+    <t>Automated_Name17</t>
+  </si>
+  <si>
+    <t>Automated_Name18</t>
+  </si>
+  <si>
+    <t>Automated_Name19</t>
+  </si>
+  <si>
+    <t>Automated_Name20</t>
+  </si>
+  <si>
+    <t>Automated_Name21</t>
+  </si>
+  <si>
+    <t>Automated_Name22</t>
+  </si>
+  <si>
+    <t>Automated_Name23</t>
+  </si>
+  <si>
+    <t>Automated_Name24</t>
+  </si>
+  <si>
+    <t>Automated_Name25</t>
+  </si>
+  <si>
+    <t>Automated_Name26</t>
+  </si>
+  <si>
+    <t>Automated_Name27</t>
+  </si>
+  <si>
+    <t>Automated_Name28</t>
+  </si>
+  <si>
+    <t>Automated_Name29</t>
+  </si>
+  <si>
+    <t>Automated_Name30</t>
+  </si>
+  <si>
+    <t>Automated_Name31</t>
+  </si>
+  <si>
+    <t>Automated_Name32</t>
+  </si>
+  <si>
+    <t>Automated_Name33</t>
+  </si>
+  <si>
+    <t>Automated_Name34</t>
+  </si>
+  <si>
+    <t>Automated_Name35</t>
+  </si>
+  <si>
+    <t>Automated_Name36</t>
+  </si>
+  <si>
+    <t>Automated_Name37</t>
+  </si>
+  <si>
+    <t>Automated_Name38</t>
+  </si>
+  <si>
+    <t>Automated_Name39</t>
+  </si>
+  <si>
+    <t>Automated_Name40</t>
+  </si>
+  <si>
+    <t>Automated_Name41</t>
+  </si>
+  <si>
+    <t>Automated_Name42</t>
+  </si>
+  <si>
+    <t>Automated_Name43</t>
+  </si>
+  <si>
+    <t>Automated_Name44</t>
+  </si>
+  <si>
+    <t>Automated_Name45</t>
+  </si>
+  <si>
+    <t>Automated_Name46</t>
+  </si>
+  <si>
+    <t>Automated_Name47</t>
+  </si>
+  <si>
+    <t>Automated_Name48</t>
+  </si>
+  <si>
+    <t>Automated_Name49</t>
+  </si>
+  <si>
+    <t>Automated_Name50</t>
+  </si>
+  <si>
+    <t>Automated_Name51</t>
+  </si>
+  <si>
+    <t>Automated_Name52</t>
+  </si>
+  <si>
+    <t>Automated_Name53</t>
+  </si>
+  <si>
+    <t>Automated_Name54</t>
+  </si>
+  <si>
+    <t>Automated_Name55</t>
+  </si>
+  <si>
+    <t>Automated_Name56</t>
+  </si>
+  <si>
+    <t>Automated_Name57</t>
+  </si>
+  <si>
+    <t>Automated_Name58</t>
+  </si>
+  <si>
+    <t>Automated_Name59</t>
+  </si>
+  <si>
+    <t>Automated_Name60</t>
+  </si>
+  <si>
+    <t>Automated_Name61</t>
+  </si>
+  <si>
+    <t>Automated_Name62</t>
+  </si>
+  <si>
+    <t>Automated_Surname12</t>
+  </si>
+  <si>
+    <t>Automated_Surname13</t>
+  </si>
+  <si>
+    <t>Automated_Surname14</t>
+  </si>
+  <si>
+    <t>Automated_Surname15</t>
+  </si>
+  <si>
+    <t>Automated_Surname16</t>
+  </si>
+  <si>
+    <t>Automated_Surname17</t>
+  </si>
+  <si>
+    <t>Automated_Surname18</t>
+  </si>
+  <si>
+    <t>Automated_Surname19</t>
+  </si>
+  <si>
+    <t>Automated_Surname20</t>
+  </si>
+  <si>
+    <t>Automated_Surname21</t>
+  </si>
+  <si>
+    <t>Automated_Surname22</t>
+  </si>
+  <si>
+    <t>Automated_Surname23</t>
+  </si>
+  <si>
+    <t>Automated_Surname24</t>
+  </si>
+  <si>
+    <t>Automated_Surname25</t>
+  </si>
+  <si>
+    <t>Automated_Surname26</t>
+  </si>
+  <si>
+    <t>Automated_Surname27</t>
+  </si>
+  <si>
+    <t>Automated_Surname28</t>
+  </si>
+  <si>
+    <t>Automated_Surname29</t>
+  </si>
+  <si>
+    <t>Automated_Surname30</t>
+  </si>
+  <si>
+    <t>Automated_Surname31</t>
+  </si>
+  <si>
+    <t>Automated_Surname32</t>
+  </si>
+  <si>
+    <t>Automated_Surname33</t>
+  </si>
+  <si>
+    <t>Automated_Surname34</t>
+  </si>
+  <si>
+    <t>Automated_Surname35</t>
+  </si>
+  <si>
+    <t>Automated_Surname36</t>
+  </si>
+  <si>
+    <t>Automated_Surname37</t>
+  </si>
+  <si>
+    <t>Automated_Surname38</t>
+  </si>
+  <si>
+    <t>Automated_Surname39</t>
+  </si>
+  <si>
+    <t>Automated_Surname40</t>
+  </si>
+  <si>
+    <t>Automated_Surname41</t>
+  </si>
+  <si>
+    <t>Automated_Surname42</t>
+  </si>
+  <si>
+    <t>Automated_Surname43</t>
+  </si>
+  <si>
+    <t>Automated_Surname44</t>
+  </si>
+  <si>
+    <t>Automated_Surname45</t>
+  </si>
+  <si>
+    <t>Automated_Surname46</t>
+  </si>
+  <si>
+    <t>Automated_Surname47</t>
+  </si>
+  <si>
+    <t>Automated_Surname48</t>
+  </si>
+  <si>
+    <t>Automated_Surname49</t>
+  </si>
+  <si>
+    <t>Automated_Surname50</t>
+  </si>
+  <si>
+    <t>Automated_Surname51</t>
+  </si>
+  <si>
+    <t>Automated_Surname52</t>
+  </si>
+  <si>
+    <t>Automated_Surname53</t>
+  </si>
+  <si>
+    <t>Automated_Surname54</t>
+  </si>
+  <si>
+    <t>Automated_Surname55</t>
+  </si>
+  <si>
+    <t>Automated_Surname56</t>
+  </si>
+  <si>
+    <t>Automated_Surname57</t>
+  </si>
+  <si>
+    <t>Automated_Surname58</t>
+  </si>
+  <si>
+    <t>Automated_Surname59</t>
+  </si>
+  <si>
+    <t>Automated_Surname60</t>
+  </si>
+  <si>
+    <t>Automated_Surname61</t>
+  </si>
+  <si>
+    <t>Automated_Surname62</t>
+  </si>
+  <si>
+    <t>Automated112</t>
+  </si>
+  <si>
+    <t>Automated113</t>
+  </si>
+  <si>
+    <t>Automated114</t>
+  </si>
+  <si>
+    <t>Automated115</t>
+  </si>
+  <si>
+    <t>Automated116</t>
+  </si>
+  <si>
+    <t>Automated117</t>
+  </si>
+  <si>
+    <t>Automated118</t>
+  </si>
+  <si>
+    <t>Automated119</t>
+  </si>
+  <si>
+    <t>Automated120</t>
+  </si>
+  <si>
+    <t>Automated121</t>
+  </si>
+  <si>
+    <t>Automated122</t>
+  </si>
+  <si>
+    <t>Automated123</t>
+  </si>
+  <si>
+    <t>Automated124</t>
+  </si>
+  <si>
+    <t>Automated125</t>
+  </si>
+  <si>
+    <t>Automated126</t>
+  </si>
+  <si>
+    <t>Automated127</t>
+  </si>
+  <si>
+    <t>Automated128</t>
+  </si>
+  <si>
+    <t>Automated129</t>
+  </si>
+  <si>
+    <t>Automated130</t>
+  </si>
+  <si>
+    <t>Automated131</t>
+  </si>
+  <si>
+    <t>Automated132</t>
+  </si>
+  <si>
+    <t>Automated133</t>
+  </si>
+  <si>
+    <t>Automated134</t>
+  </si>
+  <si>
+    <t>Automated135</t>
+  </si>
+  <si>
+    <t>Automated136</t>
+  </si>
+  <si>
+    <t>Automated137</t>
+  </si>
+  <si>
+    <t>Automated138</t>
+  </si>
+  <si>
+    <t>Automated139</t>
+  </si>
+  <si>
+    <t>Automated140</t>
+  </si>
+  <si>
+    <t>Automated141</t>
+  </si>
+  <si>
+    <t>Automated142</t>
+  </si>
+  <si>
+    <t>Automated143</t>
+  </si>
+  <si>
+    <t>Automated144</t>
+  </si>
+  <si>
+    <t>Automated145</t>
+  </si>
+  <si>
+    <t>Automated146</t>
+  </si>
+  <si>
+    <t>Automated147</t>
+  </si>
+  <si>
+    <t>Automated148</t>
+  </si>
+  <si>
+    <t>Automated149</t>
+  </si>
+  <si>
+    <t>Automated150</t>
+  </si>
+  <si>
+    <t>Automated151</t>
+  </si>
+  <si>
+    <t>Automated152</t>
+  </si>
+  <si>
+    <t>Automated153</t>
+  </si>
+  <si>
+    <t>Automated154</t>
+  </si>
+  <si>
+    <t>Automated155</t>
+  </si>
+  <si>
+    <t>Automated156</t>
+  </si>
+  <si>
+    <t>Automated157</t>
+  </si>
+  <si>
+    <t>Automated158</t>
+  </si>
+  <si>
+    <t>Automated159</t>
+  </si>
+  <si>
+    <t>Automated160</t>
+  </si>
+  <si>
+    <t>Automated161</t>
+  </si>
+  <si>
+    <t>Automated162</t>
+  </si>
+  <si>
+    <t>Automated212</t>
+  </si>
+  <si>
+    <t>Automated213</t>
+  </si>
+  <si>
+    <t>Automated214</t>
+  </si>
+  <si>
+    <t>Automated215</t>
+  </si>
+  <si>
+    <t>Automated216</t>
+  </si>
+  <si>
+    <t>Automated217</t>
+  </si>
+  <si>
+    <t>Automated218</t>
+  </si>
+  <si>
+    <t>Automated219</t>
+  </si>
+  <si>
+    <t>Automated220</t>
+  </si>
+  <si>
+    <t>Automated221</t>
+  </si>
+  <si>
+    <t>Automated222</t>
+  </si>
+  <si>
+    <t>Automated223</t>
+  </si>
+  <si>
+    <t>Automated224</t>
+  </si>
+  <si>
+    <t>Automated225</t>
+  </si>
+  <si>
+    <t>Automated226</t>
+  </si>
+  <si>
+    <t>Automated227</t>
+  </si>
+  <si>
+    <t>Automated228</t>
+  </si>
+  <si>
+    <t>Automated229</t>
+  </si>
+  <si>
+    <t>Automated230</t>
+  </si>
+  <si>
+    <t>Automated231</t>
+  </si>
+  <si>
+    <t>Automated232</t>
+  </si>
+  <si>
+    <t>Automated233</t>
+  </si>
+  <si>
+    <t>Automated234</t>
+  </si>
+  <si>
+    <t>Automated235</t>
+  </si>
+  <si>
+    <t>Automated236</t>
+  </si>
+  <si>
+    <t>Automated237</t>
+  </si>
+  <si>
+    <t>Automated238</t>
+  </si>
+  <si>
+    <t>Automated239</t>
+  </si>
+  <si>
+    <t>Automated240</t>
+  </si>
+  <si>
+    <t>Automated241</t>
+  </si>
+  <si>
+    <t>Automated242</t>
+  </si>
+  <si>
+    <t>Automated243</t>
+  </si>
+  <si>
+    <t>Automated244</t>
+  </si>
+  <si>
+    <t>Automated245</t>
+  </si>
+  <si>
+    <t>Automated246</t>
+  </si>
+  <si>
+    <t>Automated247</t>
+  </si>
+  <si>
+    <t>Automated248</t>
+  </si>
+  <si>
+    <t>Automated249</t>
+  </si>
+  <si>
+    <t>Automated250</t>
+  </si>
+  <si>
+    <t>Automated251</t>
+  </si>
+  <si>
+    <t>Automated252</t>
+  </si>
+  <si>
+    <t>Automated253</t>
+  </si>
+  <si>
+    <t>Automated254</t>
+  </si>
+  <si>
+    <t>Automated255</t>
+  </si>
+  <si>
+    <t>Automated256</t>
+  </si>
+  <si>
+    <t>Automated257</t>
+  </si>
+  <si>
+    <t>Automated258</t>
+  </si>
+  <si>
+    <t>Automated259</t>
+  </si>
+  <si>
+    <t>Automated260</t>
+  </si>
+  <si>
+    <t>Automated261</t>
+  </si>
+  <si>
+    <t>Automated262</t>
+  </si>
+  <si>
+    <t>10112</t>
+  </si>
+  <si>
+    <t>10113</t>
+  </si>
+  <si>
+    <t>10114</t>
+  </si>
+  <si>
+    <t>10115</t>
+  </si>
+  <si>
+    <t>10116</t>
+  </si>
+  <si>
+    <t>10117</t>
+  </si>
+  <si>
+    <t>10118</t>
+  </si>
+  <si>
+    <t>10119</t>
+  </si>
+  <si>
+    <t>10120</t>
+  </si>
+  <si>
+    <t>10121</t>
+  </si>
+  <si>
+    <t>10122</t>
+  </si>
+  <si>
+    <t>10123</t>
+  </si>
+  <si>
+    <t>10124</t>
+  </si>
+  <si>
+    <t>10125</t>
+  </si>
+  <si>
+    <t>10126</t>
+  </si>
+  <si>
+    <t>10127</t>
+  </si>
+  <si>
+    <t>10128</t>
+  </si>
+  <si>
+    <t>10129</t>
+  </si>
+  <si>
+    <t>10130</t>
+  </si>
+  <si>
+    <t>10131</t>
+  </si>
+  <si>
+    <t>10132</t>
+  </si>
+  <si>
+    <t>10133</t>
+  </si>
+  <si>
+    <t>10134</t>
+  </si>
+  <si>
+    <t>10135</t>
+  </si>
+  <si>
+    <t>10136</t>
+  </si>
+  <si>
+    <t>10137</t>
+  </si>
+  <si>
+    <t>10138</t>
+  </si>
+  <si>
+    <t>10139</t>
+  </si>
+  <si>
+    <t>10140</t>
+  </si>
+  <si>
+    <t>10141</t>
+  </si>
+  <si>
+    <t>10142</t>
+  </si>
+  <si>
+    <t>10143</t>
+  </si>
+  <si>
+    <t>10144</t>
+  </si>
+  <si>
+    <t>10145</t>
+  </si>
+  <si>
+    <t>10146</t>
+  </si>
+  <si>
+    <t>10147</t>
+  </si>
+  <si>
+    <t>10148</t>
+  </si>
+  <si>
+    <t>10149</t>
+  </si>
+  <si>
+    <t>10150</t>
+  </si>
+  <si>
+    <t>10151</t>
+  </si>
+  <si>
+    <t>10152</t>
+  </si>
+  <si>
+    <t>10153</t>
+  </si>
+  <si>
+    <t>10154</t>
+  </si>
+  <si>
+    <t>10155</t>
+  </si>
+  <si>
+    <t>10156</t>
+  </si>
+  <si>
+    <t>10157</t>
+  </si>
+  <si>
+    <t>10158</t>
+  </si>
+  <si>
+    <t>10159</t>
+  </si>
+  <si>
+    <t>10160</t>
+  </si>
+  <si>
+    <t>10161</t>
+  </si>
+  <si>
+    <t>10162</t>
+  </si>
+  <si>
+    <t>Big Policy</t>
+  </si>
+  <si>
+    <t>XYZ|</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
@@ -191,11 +1054,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -477,14 +1339,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7271BCF2-BE7D-432D-8482-D32AB698340F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -510,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -521,16 +1383,16 @@
         <v>42736</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>33</v>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>38919</v>
@@ -549,23 +1411,496 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N2" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M4" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N4" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M5" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N5" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M6" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N6" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N7" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M8" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N8" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
@@ -601,49 +1936,49 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -651,16 +1986,16 @@
         <v>43101</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3684367</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>35</v>
+        <v>119</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="F2" s="2">
         <v>37888</v>
@@ -677,8 +2012,8 @@
       <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5">
-        <v>447675</v>
+      <c r="K2" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="L2" s="2">
         <v>43101</v>
@@ -690,7 +2025,7 @@
         <v>43101</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -702,55 +2037,3263 @@
         <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>323</v>
       </c>
       <c r="T2" s="2">
         <v>43101</v>
       </c>
       <c r="U2" s="2">
-        <v>37986</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC72575-7534-4C5B-8510-5DF2231608F2}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3">
-        <v>43101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O3" t="s">
+        <v>324</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>323</v>
+      </c>
+      <c r="T3" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U3" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="L4" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M4" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N4" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O4" t="s">
+        <v>324</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
+        <v>323</v>
+      </c>
+      <c r="T4" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U4" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L5" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M5" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N5" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O5" t="s">
+        <v>324</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>323</v>
+      </c>
+      <c r="T5" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U5" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L6" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M6" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N6" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O6" t="s">
+        <v>324</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
+        <v>323</v>
+      </c>
+      <c r="T6" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U6" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N7" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" t="s">
+        <v>323</v>
+      </c>
+      <c r="T7" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U7" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L8" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M8" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N8" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>324</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" t="s">
+        <v>323</v>
+      </c>
+      <c r="T8" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U8" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L9" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M9" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N9" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>324</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" t="s">
+        <v>323</v>
+      </c>
+      <c r="T9" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U9" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="L10" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M10" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N10" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>324</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>323</v>
+      </c>
+      <c r="T10" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U10" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="L11" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M11" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N11" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O11" t="s">
+        <v>324</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" t="s">
+        <v>323</v>
+      </c>
+      <c r="T11" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U11" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L12" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M12" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N12" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O12" t="s">
+        <v>324</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" t="s">
+        <v>323</v>
+      </c>
+      <c r="T12" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U12" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M13" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N13" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O13" t="s">
+        <v>324</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" t="s">
+        <v>323</v>
+      </c>
+      <c r="T13" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U13" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M14" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N14" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O14" t="s">
+        <v>324</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" t="s">
+        <v>323</v>
+      </c>
+      <c r="T14" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U14" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="L15" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M15" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N15" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O15" t="s">
+        <v>324</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" t="s">
+        <v>323</v>
+      </c>
+      <c r="T15" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U15" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L16" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M16" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N16" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O16" t="s">
+        <v>324</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" t="s">
+        <v>323</v>
+      </c>
+      <c r="T16" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U16" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L17" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M17" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N17" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O17" t="s">
+        <v>324</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" t="s">
+        <v>323</v>
+      </c>
+      <c r="T17" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U17" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L18" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M18" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N18" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O18" t="s">
+        <v>324</v>
+      </c>
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" t="s">
+        <v>323</v>
+      </c>
+      <c r="T18" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U18" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M19" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N19" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O19" t="s">
+        <v>324</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" t="s">
+        <v>323</v>
+      </c>
+      <c r="T19" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U19" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L20" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M20" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N20" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O20" t="s">
+        <v>324</v>
+      </c>
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" t="s">
+        <v>323</v>
+      </c>
+      <c r="T20" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U20" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L21" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M21" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N21" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O21" t="s">
+        <v>324</v>
+      </c>
+      <c r="P21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" t="s">
+        <v>323</v>
+      </c>
+      <c r="T21" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U21" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L22" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M22" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N22" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O22" t="s">
+        <v>324</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" t="s">
+        <v>323</v>
+      </c>
+      <c r="T22" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U22" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L23" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M23" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N23" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O23" t="s">
+        <v>324</v>
+      </c>
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" t="s">
+        <v>323</v>
+      </c>
+      <c r="T23" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U23" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F24" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L24" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M24" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N24" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O24" t="s">
+        <v>324</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" t="s">
+        <v>323</v>
+      </c>
+      <c r="T24" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U24" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F25" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M25" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N25" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O25" t="s">
+        <v>324</v>
+      </c>
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" t="s">
+        <v>323</v>
+      </c>
+      <c r="T25" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U25" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M26" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N26" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O26" t="s">
+        <v>324</v>
+      </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" t="s">
+        <v>323</v>
+      </c>
+      <c r="T26" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U26" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="L27" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M27" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N27" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O27" t="s">
+        <v>324</v>
+      </c>
+      <c r="P27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" t="s">
+        <v>323</v>
+      </c>
+      <c r="T27" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U27" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="L28" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M28" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N28" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O28" t="s">
+        <v>324</v>
+      </c>
+      <c r="P28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" t="s">
+        <v>323</v>
+      </c>
+      <c r="T28" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U28" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="L29" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M29" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N29" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O29" t="s">
+        <v>324</v>
+      </c>
+      <c r="P29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" t="s">
+        <v>323</v>
+      </c>
+      <c r="T29" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U29" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="L30" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M30" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N30" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O30" t="s">
+        <v>324</v>
+      </c>
+      <c r="P30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" t="s">
+        <v>323</v>
+      </c>
+      <c r="T30" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U30" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="L31" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M31" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N31" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O31" t="s">
+        <v>324</v>
+      </c>
+      <c r="P31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" t="s">
+        <v>323</v>
+      </c>
+      <c r="T31" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U31" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="L32" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M32" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N32" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O32" t="s">
+        <v>324</v>
+      </c>
+      <c r="P32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" t="s">
+        <v>323</v>
+      </c>
+      <c r="T32" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U32" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F33" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="L33" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M33" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N33" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O33" t="s">
+        <v>324</v>
+      </c>
+      <c r="P33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" t="s">
+        <v>323</v>
+      </c>
+      <c r="T33" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U33" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F34" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M34" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N34" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O34" t="s">
+        <v>324</v>
+      </c>
+      <c r="P34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" t="s">
+        <v>323</v>
+      </c>
+      <c r="T34" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U34" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="L35" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M35" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N35" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O35" t="s">
+        <v>324</v>
+      </c>
+      <c r="P35" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" t="s">
+        <v>323</v>
+      </c>
+      <c r="T35" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U35" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L36" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M36" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N36" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O36" t="s">
+        <v>324</v>
+      </c>
+      <c r="P36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" t="s">
+        <v>323</v>
+      </c>
+      <c r="T36" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U36" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="L37" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M37" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N37" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O37" t="s">
+        <v>324</v>
+      </c>
+      <c r="P37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" t="s">
+        <v>323</v>
+      </c>
+      <c r="T37" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U37" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="L38" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N38" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O38" t="s">
+        <v>324</v>
+      </c>
+      <c r="P38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" t="s">
+        <v>323</v>
+      </c>
+      <c r="T38" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U38" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M39" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N39" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O39" t="s">
+        <v>324</v>
+      </c>
+      <c r="P39" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" t="s">
+        <v>323</v>
+      </c>
+      <c r="T39" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U39" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F40" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="L40" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M40" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N40" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O40" t="s">
+        <v>324</v>
+      </c>
+      <c r="P40" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>24</v>
+      </c>
+      <c r="R40" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" t="s">
+        <v>323</v>
+      </c>
+      <c r="T40" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U40" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="L41" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M41" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N41" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O41" t="s">
+        <v>324</v>
+      </c>
+      <c r="P41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" t="s">
+        <v>323</v>
+      </c>
+      <c r="T41" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U41" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="L42" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M42" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N42" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O42" t="s">
+        <v>324</v>
+      </c>
+      <c r="P42" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" t="s">
+        <v>323</v>
+      </c>
+      <c r="T42" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U42" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L43" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M43" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N43" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O43" t="s">
+        <v>324</v>
+      </c>
+      <c r="P43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" t="s">
+        <v>323</v>
+      </c>
+      <c r="T43" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U43" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="L44" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M44" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N44" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O44" t="s">
+        <v>324</v>
+      </c>
+      <c r="P44" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" t="s">
+        <v>323</v>
+      </c>
+      <c r="T44" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U44" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="L45" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M45" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N45" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O45" t="s">
+        <v>324</v>
+      </c>
+      <c r="P45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" t="s">
+        <v>323</v>
+      </c>
+      <c r="T45" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U45" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F46" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M46" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N46" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O46" t="s">
+        <v>324</v>
+      </c>
+      <c r="P46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" t="s">
+        <v>323</v>
+      </c>
+      <c r="T46" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U46" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="L47" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M47" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N47" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O47" t="s">
+        <v>324</v>
+      </c>
+      <c r="P47" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" t="s">
+        <v>323</v>
+      </c>
+      <c r="T47" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U47" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F48" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="L48" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M48" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N48" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O48" t="s">
+        <v>324</v>
+      </c>
+      <c r="P48" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" t="s">
+        <v>323</v>
+      </c>
+      <c r="T48" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U48" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="L49" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M49" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N49" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O49" t="s">
+        <v>324</v>
+      </c>
+      <c r="P49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" t="s">
+        <v>323</v>
+      </c>
+      <c r="T49" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U49" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F50" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="L50" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M50" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N50" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O50" t="s">
+        <v>324</v>
+      </c>
+      <c r="P50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" t="s">
+        <v>323</v>
+      </c>
+      <c r="T50" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U50" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="L51" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M51" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N51" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O51" t="s">
+        <v>324</v>
+      </c>
+      <c r="P51" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" t="s">
+        <v>323</v>
+      </c>
+      <c r="T51" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U51" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="2">
+        <v>37888</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="L52" s="2">
+        <v>43101</v>
+      </c>
+      <c r="M52" s="2">
+        <v>43646</v>
+      </c>
+      <c r="N52" s="2">
+        <v>43101</v>
+      </c>
+      <c r="O52" t="s">
+        <v>324</v>
+      </c>
+      <c r="P52" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" t="s">
+        <v>323</v>
+      </c>
+      <c r="T52" s="2">
+        <v>43101</v>
+      </c>
+      <c r="U52" s="2">
+        <v>43830</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/helpers/IHR_Data.xlsx
+++ b/target/test-classes/helpers/IHR_Data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Assignee" sheetId="2" r:id="rId1"/>
     <sheet name="AA" sheetId="3" r:id="rId2"/>
     <sheet name="AAPolicy" sheetId="1" r:id="rId3"/>
+    <sheet name="Policy" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="359">
   <si>
     <t>Australia</t>
   </si>
@@ -996,6 +997,108 @@
   </si>
   <si>
     <t>XYZ|</t>
+  </si>
+  <si>
+    <t>Policy_Currency</t>
+  </si>
+  <si>
+    <t>Covars_Number</t>
+  </si>
+  <si>
+    <t>Covar1</t>
+  </si>
+  <si>
+    <t>Covar2</t>
+  </si>
+  <si>
+    <t>Covar3</t>
+  </si>
+  <si>
+    <t>Covar4</t>
+  </si>
+  <si>
+    <t>Covar5</t>
+  </si>
+  <si>
+    <t>Covar6</t>
+  </si>
+  <si>
+    <t>Covar7</t>
+  </si>
+  <si>
+    <t>Covar8</t>
+  </si>
+  <si>
+    <t>Covar9</t>
+  </si>
+  <si>
+    <t>Covar10</t>
+  </si>
+  <si>
+    <t>United States Dollar</t>
+  </si>
+  <si>
+    <t>12/31/2018</t>
+  </si>
+  <si>
+    <t>Net Pay</t>
+  </si>
+  <si>
+    <t>zzzAlimony Received</t>
+  </si>
+  <si>
+    <t>zzzAnnual Paid Premium</t>
+  </si>
+  <si>
+    <t>zzzAnnuities</t>
+  </si>
+  <si>
+    <t>zzzAuto Loan Advance</t>
+  </si>
+  <si>
+    <t>zzzAutomobile Expense</t>
+  </si>
+  <si>
+    <t>zzzBase Salary</t>
+  </si>
+  <si>
+    <t>zzzBonus - Current Year</t>
+  </si>
+  <si>
+    <t>zzzEducation Trip</t>
+  </si>
+  <si>
+    <t>zzzEntertainment Allowance</t>
+  </si>
+  <si>
+    <t>Automated Policy28</t>
+  </si>
+  <si>
+    <t>Automated Policy29</t>
+  </si>
+  <si>
+    <t>Automated Policy30</t>
+  </si>
+  <si>
+    <t>Automated Policy31</t>
+  </si>
+  <si>
+    <t>Automated Policy32</t>
+  </si>
+  <si>
+    <t>Automated Policy33</t>
+  </si>
+  <si>
+    <t>Automated Policy34</t>
+  </si>
+  <si>
+    <t>Automated Policy35</t>
+  </si>
+  <si>
+    <t>Automated Policy36</t>
+  </si>
+  <si>
+    <t>Automated Policy37</t>
   </si>
 </sst>
 </file>
@@ -1054,12 +1157,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1887,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5300,4 +5404,552 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L2" t="s">
+        <v>345</v>
+      </c>
+      <c r="M2" t="s">
+        <v>346</v>
+      </c>
+      <c r="N2" t="s">
+        <v>347</v>
+      </c>
+      <c r="O2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" t="s">
+        <v>342</v>
+      </c>
+      <c r="J3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K3" t="s">
+        <v>344</v>
+      </c>
+      <c r="L3" t="s">
+        <v>345</v>
+      </c>
+      <c r="M3" t="s">
+        <v>346</v>
+      </c>
+      <c r="N3" t="s">
+        <v>347</v>
+      </c>
+      <c r="O3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J4" t="s">
+        <v>343</v>
+      </c>
+      <c r="K4" t="s">
+        <v>344</v>
+      </c>
+      <c r="L4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M4" t="s">
+        <v>346</v>
+      </c>
+      <c r="N4" t="s">
+        <v>347</v>
+      </c>
+      <c r="O4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I5" t="s">
+        <v>342</v>
+      </c>
+      <c r="J5" t="s">
+        <v>343</v>
+      </c>
+      <c r="K5" t="s">
+        <v>344</v>
+      </c>
+      <c r="L5" t="s">
+        <v>345</v>
+      </c>
+      <c r="M5" t="s">
+        <v>346</v>
+      </c>
+      <c r="N5" t="s">
+        <v>347</v>
+      </c>
+      <c r="O5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I6" t="s">
+        <v>342</v>
+      </c>
+      <c r="J6" t="s">
+        <v>343</v>
+      </c>
+      <c r="K6" t="s">
+        <v>344</v>
+      </c>
+      <c r="L6" t="s">
+        <v>345</v>
+      </c>
+      <c r="M6" t="s">
+        <v>346</v>
+      </c>
+      <c r="N6" t="s">
+        <v>347</v>
+      </c>
+      <c r="O6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M7" t="s">
+        <v>346</v>
+      </c>
+      <c r="N7" t="s">
+        <v>347</v>
+      </c>
+      <c r="O7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G8" t="s">
+        <v>340</v>
+      </c>
+      <c r="H8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I8" t="s">
+        <v>342</v>
+      </c>
+      <c r="J8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K8" t="s">
+        <v>344</v>
+      </c>
+      <c r="L8" t="s">
+        <v>345</v>
+      </c>
+      <c r="M8" t="s">
+        <v>346</v>
+      </c>
+      <c r="N8" t="s">
+        <v>347</v>
+      </c>
+      <c r="O8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H9" t="s">
+        <v>341</v>
+      </c>
+      <c r="I9" t="s">
+        <v>342</v>
+      </c>
+      <c r="J9" t="s">
+        <v>343</v>
+      </c>
+      <c r="K9" t="s">
+        <v>344</v>
+      </c>
+      <c r="L9" t="s">
+        <v>345</v>
+      </c>
+      <c r="M9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N9" t="s">
+        <v>347</v>
+      </c>
+      <c r="O9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I10" t="s">
+        <v>342</v>
+      </c>
+      <c r="J10" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" t="s">
+        <v>344</v>
+      </c>
+      <c r="L10" t="s">
+        <v>345</v>
+      </c>
+      <c r="M10" t="s">
+        <v>346</v>
+      </c>
+      <c r="N10" t="s">
+        <v>347</v>
+      </c>
+      <c r="O10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H11" t="s">
+        <v>341</v>
+      </c>
+      <c r="I11" t="s">
+        <v>342</v>
+      </c>
+      <c r="J11" t="s">
+        <v>343</v>
+      </c>
+      <c r="K11" t="s">
+        <v>344</v>
+      </c>
+      <c r="L11" t="s">
+        <v>345</v>
+      </c>
+      <c r="M11" t="s">
+        <v>346</v>
+      </c>
+      <c r="N11" t="s">
+        <v>347</v>
+      </c>
+      <c r="O11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/test-classes/helpers/IHR_Data.xlsx
+++ b/target/test-classes/helpers/IHR_Data.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D73AC67-89C4-48F0-B49B-26F75C3A933E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignee" sheetId="2" r:id="rId1"/>
     <sheet name="AA" sheetId="3" r:id="rId2"/>
     <sheet name="AAPolicy" sheetId="1" r:id="rId3"/>
     <sheet name="Policy" sheetId="4" r:id="rId4"/>
+    <sheet name="CompImportLegacy" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="367">
   <si>
     <t>Australia</t>
   </si>
@@ -1099,12 +1101,36 @@
   </si>
   <si>
     <t>Automated Policy37</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Test_File</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Fail 1</t>
+  </si>
+  <si>
+    <t>Fail 2</t>
+  </si>
+  <si>
+    <t>C:/Users/mamanrique/Desktop/Test.xlsx</t>
+  </si>
+  <si>
+    <t>C:/Users/mamanrique/Desktop/Test2.xlsx</t>
+  </si>
+  <si>
+    <t>C:/Users/mamanrique/Desktop/Test3.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
@@ -1443,14 +1469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -1515,14 +1541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -1988,14 +2014,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -5407,14 +5433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -5952,4 +5978,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC890CA6-7851-4067-9CF2-79B14B686FAD}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/test-classes/helpers/IHR_Data.xlsx
+++ b/target/test-classes/helpers/IHR_Data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D73AC67-89C4-48F0-B49B-26F75C3A933E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Assignee" sheetId="2" r:id="rId1"/>
@@ -13,6 +12,7 @@
     <sheet name="AAPolicy" sheetId="1" r:id="rId3"/>
     <sheet name="Policy" sheetId="4" r:id="rId4"/>
     <sheet name="CompImportLegacy" sheetId="5" r:id="rId5"/>
+    <sheet name="NewCompImport" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="371">
   <si>
     <t>Australia</t>
   </si>
@@ -1125,12 +1125,24 @@
   </si>
   <si>
     <t>C:/Users/mamanrique/Desktop/Test3.xlsx</t>
+  </si>
+  <si>
+    <t>Not Grouping</t>
+  </si>
+  <si>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>C:/Users/mamanrique/Desktop/NewCompImportAutomated.xlsx</t>
+  </si>
+  <si>
+    <t>C:/Users/mamanrique/Desktop/NewCompImportAutomated_Grouping.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
@@ -1469,14 +1481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -1541,14 +1553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -2014,14 +2026,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -5433,14 +5445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -5981,14 +5993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC890CA6-7851-4067-9CF2-79B14B686FAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
   </cols>
@@ -6028,4 +6040,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/test-classes/helpers/IHR_Data.xlsx
+++ b/target/test-classes/helpers/IHR_Data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBBBEE8-55A8-481A-9D9B-A4E78FAB46E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignee" sheetId="2" r:id="rId1"/>
@@ -13,6 +14,7 @@
     <sheet name="Policy" sheetId="4" r:id="rId4"/>
     <sheet name="CompImportLegacy" sheetId="5" r:id="rId5"/>
     <sheet name="NewCompImport" sheetId="6" r:id="rId6"/>
+    <sheet name="PPT" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="454">
   <si>
     <t>Australia</t>
   </si>
@@ -1137,12 +1139,261 @@
   </si>
   <si>
     <t>C:/Users/mamanrique/Desktop/NewCompImportAutomated_Grouping.xlsx</t>
+  </si>
+  <si>
+    <t>PPT_Name</t>
+  </si>
+  <si>
+    <t>Begin_Date</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PLS</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Social_Tax</t>
+  </si>
+  <si>
+    <t>Hypo</t>
+  </si>
+  <si>
+    <t>TET</t>
+  </si>
+  <si>
+    <t>Variable1</t>
+  </si>
+  <si>
+    <t>Variable2</t>
+  </si>
+  <si>
+    <t>Variable3</t>
+  </si>
+  <si>
+    <t>Variable4</t>
+  </si>
+  <si>
+    <t>Variable5</t>
+  </si>
+  <si>
+    <t>Source_Type</t>
+  </si>
+  <si>
+    <t>Amount1</t>
+  </si>
+  <si>
+    <t>How_Stated1</t>
+  </si>
+  <si>
+    <t>Amount2</t>
+  </si>
+  <si>
+    <t>How_Stated2</t>
+  </si>
+  <si>
+    <t>Amount3</t>
+  </si>
+  <si>
+    <t>How_Stated3</t>
+  </si>
+  <si>
+    <t>Amount4</t>
+  </si>
+  <si>
+    <t>How_Stated4</t>
+  </si>
+  <si>
+    <t>Amount5</t>
+  </si>
+  <si>
+    <t>How_Stated5</t>
+  </si>
+  <si>
+    <t>Element1</t>
+  </si>
+  <si>
+    <t>Element2</t>
+  </si>
+  <si>
+    <t>Element3</t>
+  </si>
+  <si>
+    <t>Element4</t>
+  </si>
+  <si>
+    <t>Element5</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Currency_Indicator</t>
+  </si>
+  <si>
+    <t>Variable_Mapping1</t>
+  </si>
+  <si>
+    <t>Element_Mapping1</t>
+  </si>
+  <si>
+    <t>Usage_Mapping1</t>
+  </si>
+  <si>
+    <t>Variable_Mapping2</t>
+  </si>
+  <si>
+    <t>Element_Mapping2</t>
+  </si>
+  <si>
+    <t>Usage_Mapping2</t>
+  </si>
+  <si>
+    <t>Variable_Mapping3</t>
+  </si>
+  <si>
+    <t>Element_Mapping3</t>
+  </si>
+  <si>
+    <t>Usage_Mapping3</t>
+  </si>
+  <si>
+    <t>Variable_Mapping4</t>
+  </si>
+  <si>
+    <t>Element_Mapping4</t>
+  </si>
+  <si>
+    <t>Usage_Mapping4</t>
+  </si>
+  <si>
+    <t>Variable_Mapping5</t>
+  </si>
+  <si>
+    <t>Element_Mapping5</t>
+  </si>
+  <si>
+    <t>Usage_Mapping5</t>
+  </si>
+  <si>
+    <t>Automate84</t>
+  </si>
+  <si>
+    <t>Automate85</t>
+  </si>
+  <si>
+    <t>Automate86</t>
+  </si>
+  <si>
+    <t>Automate87</t>
+  </si>
+  <si>
+    <t>Automate88</t>
+  </si>
+  <si>
+    <t>Automate89</t>
+  </si>
+  <si>
+    <t>Automate90</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>FPE PLS</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>New From Issue</t>
+  </si>
+  <si>
+    <t>NETPY</t>
+  </si>
+  <si>
+    <t>EXTPY</t>
+  </si>
+  <si>
+    <t>AUTLS</t>
+  </si>
+  <si>
+    <t>DEPTR</t>
+  </si>
+  <si>
+    <t>BONCY</t>
+  </si>
+  <si>
+    <t>Fixed Amount</t>
+  </si>
+  <si>
+    <t>Semi-Monthly</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>Bi-Monthly</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>BONUS</t>
+  </si>
+  <si>
+    <t>RTMTN</t>
+  </si>
+  <si>
+    <t>HHRCO</t>
+  </si>
+  <si>
+    <t>AUTLS - zzzAutomobile Leasing</t>
+  </si>
+  <si>
+    <t>AUTLS - Automobile Leasing</t>
+  </si>
+  <si>
+    <t>BONCY - zzzBonus - Current Year</t>
+  </si>
+  <si>
+    <t>BONUS - Bonus - Current Year</t>
+  </si>
+  <si>
+    <t>DEPTR - zzzEducation Trip</t>
+  </si>
+  <si>
+    <t>DEPTR - Education Trip</t>
+  </si>
+  <si>
+    <t>EXTPY - External System</t>
+  </si>
+  <si>
+    <t>HHRCO - Host Housing - Rented by Company</t>
+  </si>
+  <si>
+    <t>NETPY - Net Pay</t>
+  </si>
+  <si>
+    <t>RTMTN - Rental Maintenance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
@@ -1481,14 +1732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -1553,14 +1804,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -2026,14 +2277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -5445,14 +5696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -5993,14 +6244,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
   </cols>
@@ -6043,14 +6294,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6082,4 +6333,1180 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58B4A43-1EFA-4E2D-A932-7681AC187D6B}">
+  <dimension ref="A1:AT8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L2" t="s">
+        <v>433</v>
+      </c>
+      <c r="M2" t="s">
+        <v>434</v>
+      </c>
+      <c r="N2" t="s">
+        <v>435</v>
+      </c>
+      <c r="O2">
+        <v>5000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q2">
+        <v>2500.5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>437</v>
+      </c>
+      <c r="S2">
+        <v>1000</v>
+      </c>
+      <c r="T2" t="s">
+        <v>438</v>
+      </c>
+      <c r="U2">
+        <v>700</v>
+      </c>
+      <c r="V2" t="s">
+        <v>439</v>
+      </c>
+      <c r="W2">
+        <v>1200</v>
+      </c>
+      <c r="X2" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>452</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J3" t="s">
+        <v>431</v>
+      </c>
+      <c r="K3" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" t="s">
+        <v>433</v>
+      </c>
+      <c r="M3" t="s">
+        <v>434</v>
+      </c>
+      <c r="N3" t="s">
+        <v>435</v>
+      </c>
+      <c r="O3">
+        <v>5000</v>
+      </c>
+      <c r="P3" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q3">
+        <v>2500.5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>437</v>
+      </c>
+      <c r="S3">
+        <v>1000</v>
+      </c>
+      <c r="T3" t="s">
+        <v>438</v>
+      </c>
+      <c r="U3">
+        <v>700</v>
+      </c>
+      <c r="V3" t="s">
+        <v>439</v>
+      </c>
+      <c r="W3">
+        <v>1200</v>
+      </c>
+      <c r="X3" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>450</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>451</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>452</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>453</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I4" t="s">
+        <v>430</v>
+      </c>
+      <c r="J4" t="s">
+        <v>431</v>
+      </c>
+      <c r="K4" t="s">
+        <v>432</v>
+      </c>
+      <c r="L4" t="s">
+        <v>433</v>
+      </c>
+      <c r="M4" t="s">
+        <v>434</v>
+      </c>
+      <c r="N4" t="s">
+        <v>435</v>
+      </c>
+      <c r="O4">
+        <v>5000</v>
+      </c>
+      <c r="P4" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q4">
+        <v>2500.5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>437</v>
+      </c>
+      <c r="S4">
+        <v>1000</v>
+      </c>
+      <c r="T4" t="s">
+        <v>438</v>
+      </c>
+      <c r="U4">
+        <v>700</v>
+      </c>
+      <c r="V4" t="s">
+        <v>439</v>
+      </c>
+      <c r="W4">
+        <v>1200</v>
+      </c>
+      <c r="X4" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>450</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>452</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>453</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G5" t="s">
+        <v>428</v>
+      </c>
+      <c r="H5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I5" t="s">
+        <v>430</v>
+      </c>
+      <c r="J5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K5" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" t="s">
+        <v>433</v>
+      </c>
+      <c r="M5" t="s">
+        <v>434</v>
+      </c>
+      <c r="N5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O5">
+        <v>5000</v>
+      </c>
+      <c r="P5" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q5">
+        <v>2500.5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>437</v>
+      </c>
+      <c r="S5">
+        <v>1000</v>
+      </c>
+      <c r="T5" t="s">
+        <v>438</v>
+      </c>
+      <c r="U5">
+        <v>700</v>
+      </c>
+      <c r="V5" t="s">
+        <v>439</v>
+      </c>
+      <c r="W5">
+        <v>1200</v>
+      </c>
+      <c r="X5" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>450</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>451</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>452</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>453</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" t="s">
+        <v>428</v>
+      </c>
+      <c r="H6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I6" t="s">
+        <v>430</v>
+      </c>
+      <c r="J6" t="s">
+        <v>431</v>
+      </c>
+      <c r="K6" t="s">
+        <v>432</v>
+      </c>
+      <c r="L6" t="s">
+        <v>433</v>
+      </c>
+      <c r="M6" t="s">
+        <v>434</v>
+      </c>
+      <c r="N6" t="s">
+        <v>435</v>
+      </c>
+      <c r="O6">
+        <v>5000</v>
+      </c>
+      <c r="P6" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q6">
+        <v>2500.5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>437</v>
+      </c>
+      <c r="S6">
+        <v>1000</v>
+      </c>
+      <c r="T6" t="s">
+        <v>438</v>
+      </c>
+      <c r="U6">
+        <v>700</v>
+      </c>
+      <c r="V6" t="s">
+        <v>439</v>
+      </c>
+      <c r="W6">
+        <v>1200</v>
+      </c>
+      <c r="X6" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H7" t="s">
+        <v>429</v>
+      </c>
+      <c r="I7" t="s">
+        <v>430</v>
+      </c>
+      <c r="J7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M7" t="s">
+        <v>434</v>
+      </c>
+      <c r="N7" t="s">
+        <v>435</v>
+      </c>
+      <c r="O7">
+        <v>5000</v>
+      </c>
+      <c r="P7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q7">
+        <v>2500.5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>437</v>
+      </c>
+      <c r="S7">
+        <v>1000</v>
+      </c>
+      <c r="T7" t="s">
+        <v>438</v>
+      </c>
+      <c r="U7">
+        <v>700</v>
+      </c>
+      <c r="V7" t="s">
+        <v>439</v>
+      </c>
+      <c r="W7">
+        <v>1200</v>
+      </c>
+      <c r="X7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>450</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>451</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>452</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>453</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" t="s">
+        <v>426</v>
+      </c>
+      <c r="F8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8" t="s">
+        <v>429</v>
+      </c>
+      <c r="I8" t="s">
+        <v>430</v>
+      </c>
+      <c r="J8" t="s">
+        <v>431</v>
+      </c>
+      <c r="K8" t="s">
+        <v>432</v>
+      </c>
+      <c r="L8" t="s">
+        <v>433</v>
+      </c>
+      <c r="M8" t="s">
+        <v>434</v>
+      </c>
+      <c r="N8" t="s">
+        <v>435</v>
+      </c>
+      <c r="O8">
+        <v>5000</v>
+      </c>
+      <c r="P8" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q8">
+        <v>2500.5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>437</v>
+      </c>
+      <c r="S8">
+        <v>1000</v>
+      </c>
+      <c r="T8" t="s">
+        <v>438</v>
+      </c>
+      <c r="U8">
+        <v>700</v>
+      </c>
+      <c r="V8" t="s">
+        <v>439</v>
+      </c>
+      <c r="W8">
+        <v>1200</v>
+      </c>
+      <c r="X8" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>450</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>451</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>452</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>453</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/target/test-classes/helpers/IHR_Data.xlsx
+++ b/target/test-classes/helpers/IHR_Data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBBBEE8-55A8-481A-9D9B-A4E78FAB46E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Assignee" sheetId="2" r:id="rId1"/>
@@ -15,6 +14,7 @@
     <sheet name="CompImportLegacy" sheetId="5" r:id="rId5"/>
     <sheet name="NewCompImport" sheetId="6" r:id="rId6"/>
     <sheet name="PPT" sheetId="7" r:id="rId7"/>
+    <sheet name="BSU" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="462">
   <si>
     <t>Australia</t>
   </si>
@@ -1388,12 +1388,36 @@
   </si>
   <si>
     <t>RTMTN - Rental Maintenance</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Change_To</t>
+  </si>
+  <si>
+    <t>2010 - 2030</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Diaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
@@ -1732,14 +1756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -1804,14 +1828,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -2277,14 +2301,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -5696,14 +5720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -6244,14 +6268,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
   </cols>
@@ -6294,14 +6318,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6336,14 +6360,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58B4A43-1EFA-4E2D-A932-7681AC187D6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -7509,4 +7533,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43132</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43132</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43281</v>
+      </c>
+      <c r="F3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43132</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43281</v>
+      </c>
+      <c r="F4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43132</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43281</v>
+      </c>
+      <c r="F5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43132</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43281</v>
+      </c>
+      <c r="F6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>